--- a/www/src.xlsx
+++ b/www/src.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nnasrashvili\Dropbox\R\Georgia\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83335687-75E3-4695-BDD7-758F8E3FA8A2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09793C38-8038-41F4-9620-8D3BA9389A9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="672" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -645,11 +645,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1457E0D-99B3-4EF4-8E98-3DB8AFE15EB4}">
-  <dimension ref="A1:Y361"/>
+  <dimension ref="A1:Y363"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S2" sqref="S2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V363" sqref="V363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27380,7 +27380,7 @@
         <v>2501</v>
       </c>
       <c r="I286" s="5">
-        <f t="shared" ref="I286:I361" si="132">E286-H286</f>
+        <f t="shared" ref="I286:I363" si="132">E286-H286</f>
         <v>6941</v>
       </c>
       <c r="J286" s="12">
@@ -27471,7 +27471,7 @@
         <v>11400</v>
       </c>
       <c r="H287" s="2">
-        <f t="shared" ref="H287:H361" si="133">B287-B286</f>
+        <f t="shared" ref="H287:H363" si="133">B287-B286</f>
         <v>4673</v>
       </c>
       <c r="I287" s="5">
@@ -27548,11 +27548,11 @@
         <v>174383</v>
       </c>
       <c r="C288" s="5">
-        <f t="shared" ref="C288:C361" si="134">C287+F288</f>
+        <f t="shared" ref="C288:C363" si="134">C287+F288</f>
         <v>1276387</v>
       </c>
       <c r="D288" s="5">
-        <f t="shared" ref="D288:D361" si="135">D287+E288</f>
+        <f t="shared" ref="D288:D363" si="135">D287+E288</f>
         <v>1647972.7059599999</v>
       </c>
       <c r="E288" s="2">
@@ -30782,7 +30782,7 @@
         <v>31.684012967070469</v>
       </c>
       <c r="M322" s="9">
-        <f t="shared" ref="M322:M361" si="141">H322/E322*100</f>
+        <f t="shared" ref="M322:M363" si="141">H322/E322*100</f>
         <v>10.435515594268052</v>
       </c>
       <c r="N322" s="5">
@@ -30798,7 +30798,7 @@
         <v>1365.4285714285713</v>
       </c>
       <c r="Q322" s="5">
-        <f t="shared" ref="Q322:Q361" si="142">H322/3716900*100000</f>
+        <f t="shared" ref="Q322:Q363" si="142">H322/3716900*100000</f>
         <v>49.96098899620651</v>
       </c>
       <c r="R322" s="5">
@@ -30822,11 +30822,11 @@
         <v>6.5010025776725291</v>
       </c>
       <c r="W322" s="4">
-        <f t="shared" ref="W322:W361" si="143">B322*4</f>
+        <f t="shared" ref="W322:W363" si="143">B322*4</f>
         <v>966548</v>
       </c>
       <c r="X322" s="10">
-        <f t="shared" ref="X322:X361" si="144">$Y$341/B322</f>
+        <f t="shared" ref="X322:X363" si="144">$Y$341/B322</f>
         <v>15.382242785666103</v>
       </c>
       <c r="Y322" s="2"/>
@@ -30872,7 +30872,7 @@
         <v>12.013597033374536</v>
       </c>
       <c r="L323" s="18">
-        <f t="shared" ref="L323:L361" si="145">H323/F323*100</f>
+        <f t="shared" ref="L323:L363" si="145">H323/F323*100</f>
         <v>18.674976915974145</v>
       </c>
       <c r="M323" s="9">
@@ -30900,7 +30900,7 @@
         <v>36.036174538690069</v>
       </c>
       <c r="S323" s="11">
-        <f t="shared" ref="S323:S361" si="146">B323/C323</f>
+        <f t="shared" ref="S323:S363" si="146">B323/C323</f>
         <v>0.16463881389394433</v>
       </c>
       <c r="T323" s="2">
@@ -30912,7 +30912,7 @@
         <v>622882.06541000004</v>
       </c>
       <c r="V323" s="9">
-        <f t="shared" ref="V323:V361" si="147">B323/$Y$341*100</f>
+        <f t="shared" ref="V323:V363" si="147">B323/$Y$341*100</f>
         <v>6.5445332545584129</v>
       </c>
       <c r="W323" s="4">
@@ -31244,7 +31244,7 @@
         <v>8.6994560479409202</v>
       </c>
       <c r="K327" s="7">
-        <f t="shared" ref="K327:K361" si="148">E327/H327</f>
+        <f t="shared" ref="K327:K363" si="148">E327/H327</f>
         <v>11.644871794871795</v>
       </c>
       <c r="L327" s="18">
@@ -31264,7 +31264,7 @@
         <v>6666.9464682980715</v>
       </c>
       <c r="P327" s="5">
-        <f t="shared" ref="P327:P361" si="149">AVERAGE(H321:H327)</f>
+        <f t="shared" ref="P327:P363" si="149">AVERAGE(H321:H327)</f>
         <v>1225.1428571428571</v>
       </c>
       <c r="Q327" s="5">
@@ -31366,7 +31366,7 @@
         <v>2.9594554601953242</v>
       </c>
       <c r="R328" s="5">
-        <f t="shared" ref="R328:R361" si="150">AVERAGE(H322:H328)/3716900*100000</f>
+        <f t="shared" ref="R328:R363" si="150">AVERAGE(H322:H328)/3716900*100000</f>
         <v>31.266454764531119</v>
       </c>
       <c r="S328" s="11">
@@ -32087,7 +32087,7 @@
         <v>16343</v>
       </c>
       <c r="J336" s="12">
-        <f t="shared" ref="J336:J361" si="151">D336/B336</f>
+        <f t="shared" ref="J336:J363" si="151">D336/B336</f>
         <v>8.899705307861959</v>
       </c>
       <c r="K336" s="7">
@@ -33137,7 +33137,7 @@
       </c>
       <c r="T347" s="2"/>
       <c r="U347" s="5">
-        <f t="shared" ref="U347:U361" si="152">U346+G347</f>
+        <f t="shared" ref="U347:U363" si="152">U346+G347</f>
         <v>821053.06541000004</v>
       </c>
       <c r="V347" s="9">
@@ -33294,11 +33294,11 @@
         <v>3.0941908084331868</v>
       </c>
       <c r="N349" s="5">
-        <f t="shared" ref="N349:N361" si="153">D349/3716900*100000</f>
+        <f t="shared" ref="N349:N363" si="153">D349/3716900*100000</f>
         <v>66458.088890204206</v>
       </c>
       <c r="O349" s="5">
-        <f t="shared" ref="O349:O361" si="154">E349/3716919*100000</f>
+        <f t="shared" ref="O349:O363" si="154">E349/3716919*100000</f>
         <v>177.37809190891704</v>
       </c>
       <c r="P349" s="5">
@@ -34418,6 +34418,184 @@
       <c r="X361" s="1">
         <f t="shared" si="144"/>
         <v>13.864082776010175</v>
+      </c>
+    </row>
+    <row r="362" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A362" s="3">
+        <v>44248</v>
+      </c>
+      <c r="B362" s="2">
+        <v>268355</v>
+      </c>
+      <c r="C362" s="5">
+        <f t="shared" si="134"/>
+        <v>1726218</v>
+      </c>
+      <c r="D362" s="5">
+        <f t="shared" si="135"/>
+        <v>2709721.7059599999</v>
+      </c>
+      <c r="E362" s="2">
+        <v>9653</v>
+      </c>
+      <c r="F362" s="2">
+        <v>4956</v>
+      </c>
+      <c r="G362" s="2">
+        <v>4697</v>
+      </c>
+      <c r="H362" s="2">
+        <f t="shared" si="133"/>
+        <v>258</v>
+      </c>
+      <c r="I362" s="5">
+        <f t="shared" si="132"/>
+        <v>9395</v>
+      </c>
+      <c r="J362" s="12">
+        <f t="shared" si="151"/>
+        <v>10.097526433120306</v>
+      </c>
+      <c r="K362" s="7">
+        <f t="shared" si="148"/>
+        <v>37.414728682170541</v>
+      </c>
+      <c r="L362" s="18">
+        <f t="shared" si="145"/>
+        <v>5.2058111380145284</v>
+      </c>
+      <c r="M362" s="9">
+        <f t="shared" si="141"/>
+        <v>2.6727442245933908</v>
+      </c>
+      <c r="N362" s="5">
+        <f t="shared" si="153"/>
+        <v>72902.733621028266</v>
+      </c>
+      <c r="O362" s="2">
+        <f t="shared" si="154"/>
+        <v>259.70434114921528</v>
+      </c>
+      <c r="P362" s="5">
+        <f t="shared" si="149"/>
+        <v>399.71428571428572</v>
+      </c>
+      <c r="Q362" s="5">
+        <f t="shared" si="142"/>
+        <v>6.9412682611853969</v>
+      </c>
+      <c r="R362" s="5">
+        <f t="shared" si="150"/>
+        <v>10.75396932159288</v>
+      </c>
+      <c r="S362" s="11">
+        <f t="shared" si="146"/>
+        <v>0.15545834882963797</v>
+      </c>
+      <c r="U362" s="5">
+        <f t="shared" si="152"/>
+        <v>982986.06541000004</v>
+      </c>
+      <c r="V362" s="9">
+        <f t="shared" si="147"/>
+        <v>7.2198237303530162</v>
+      </c>
+      <c r="W362" s="1">
+        <f t="shared" si="143"/>
+        <v>1073420</v>
+      </c>
+      <c r="X362" s="1">
+        <f t="shared" si="144"/>
+        <v>13.850753665853068</v>
+      </c>
+    </row>
+    <row r="363" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A363" s="3">
+        <v>44249</v>
+      </c>
+      <c r="B363" s="2">
+        <v>268502</v>
+      </c>
+      <c r="C363" s="5">
+        <f t="shared" si="134"/>
+        <v>1728757</v>
+      </c>
+      <c r="D363" s="5">
+        <f t="shared" si="135"/>
+        <v>2714996.7059599999</v>
+      </c>
+      <c r="E363" s="2">
+        <v>5275</v>
+      </c>
+      <c r="F363" s="2">
+        <v>2539</v>
+      </c>
+      <c r="G363" s="2">
+        <v>2736</v>
+      </c>
+      <c r="H363" s="2">
+        <f t="shared" si="133"/>
+        <v>147</v>
+      </c>
+      <c r="I363" s="5">
+        <f t="shared" si="132"/>
+        <v>5128</v>
+      </c>
+      <c r="J363" s="12">
+        <f t="shared" si="151"/>
+        <v>10.111644255759733</v>
+      </c>
+      <c r="K363" s="7">
+        <f t="shared" si="148"/>
+        <v>35.884353741496597</v>
+      </c>
+      <c r="L363" s="18">
+        <f t="shared" si="145"/>
+        <v>5.7896809767625044</v>
+      </c>
+      <c r="M363" s="9">
+        <f t="shared" si="141"/>
+        <v>2.7867298578199051</v>
+      </c>
+      <c r="N363" s="5">
+        <f t="shared" si="153"/>
+        <v>73044.652962414912</v>
+      </c>
+      <c r="O363" s="2">
+        <f t="shared" si="154"/>
+        <v>141.91861592894546</v>
+      </c>
+      <c r="P363" s="5">
+        <f t="shared" si="149"/>
+        <v>397.14285714285717</v>
+      </c>
+      <c r="Q363" s="5">
+        <f t="shared" si="142"/>
+        <v>3.9549086604428418</v>
+      </c>
+      <c r="R363" s="5">
+        <f t="shared" si="150"/>
+        <v>10.684787245900001</v>
+      </c>
+      <c r="S363" s="11">
+        <f t="shared" si="146"/>
+        <v>0.15531506163098688</v>
+      </c>
+      <c r="U363" s="5">
+        <f t="shared" si="152"/>
+        <v>985722.06541000004</v>
+      </c>
+      <c r="V363" s="9">
+        <f t="shared" si="147"/>
+        <v>7.2237786187969126</v>
+      </c>
+      <c r="W363" s="1">
+        <f t="shared" si="143"/>
+        <v>1074008</v>
+      </c>
+      <c r="X363" s="1">
+        <f t="shared" si="144"/>
+        <v>13.843170628151746</v>
       </c>
     </row>
   </sheetData>
@@ -34430,11 +34608,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB463501-E8DA-4A04-9BAF-AD4E88656466}">
-  <dimension ref="A1:I361"/>
+  <dimension ref="A1:I363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A350" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H361" sqref="H361"/>
+      <selection pane="bottomLeft" activeCell="H363" sqref="H363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -42207,7 +42385,7 @@
         <v>521</v>
       </c>
       <c r="H259" s="2">
-        <f t="shared" ref="H259:H361" si="4">E259-(F259+G259)</f>
+        <f t="shared" ref="H259:H363" si="4">E259-(F259+G259)</f>
         <v>15735</v>
       </c>
     </row>
@@ -45269,6 +45447,66 @@
       <c r="H361" s="2">
         <f t="shared" si="4"/>
         <v>3706</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A362" s="3">
+        <v>44248</v>
+      </c>
+      <c r="B362" s="2">
+        <v>258</v>
+      </c>
+      <c r="C362" s="2">
+        <v>10</v>
+      </c>
+      <c r="D362" s="2">
+        <v>571</v>
+      </c>
+      <c r="E362" s="2">
+        <f>SUM($B$2:B362)</f>
+        <v>268455</v>
+      </c>
+      <c r="F362" s="2">
+        <f>SUM($D$2:D362)+831</f>
+        <v>261637</v>
+      </c>
+      <c r="G362" s="2">
+        <f>SUM($C$2:C362)</f>
+        <v>3435</v>
+      </c>
+      <c r="H362" s="2">
+        <f t="shared" si="4"/>
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A363" s="3">
+        <v>44249</v>
+      </c>
+      <c r="B363" s="2">
+        <v>147</v>
+      </c>
+      <c r="C363" s="2">
+        <v>12</v>
+      </c>
+      <c r="D363" s="2">
+        <v>607</v>
+      </c>
+      <c r="E363" s="2">
+        <f>SUM($B$2:B363)</f>
+        <v>268602</v>
+      </c>
+      <c r="F363" s="2">
+        <f>SUM($D$2:D363)+831</f>
+        <v>262244</v>
+      </c>
+      <c r="G363" s="2">
+        <f>SUM($C$2:C363)</f>
+        <v>3447</v>
+      </c>
+      <c r="H363" s="2">
+        <f t="shared" si="4"/>
+        <v>2911</v>
       </c>
     </row>
   </sheetData>
@@ -45278,11 +45516,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4656CCE-82D8-4276-AB45-30D11CE15D9A}">
-  <dimension ref="A1:P161"/>
+  <dimension ref="A1:P163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H161" sqref="H161"/>
+      <selection pane="bottomLeft" activeCell="A163" sqref="A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -47727,7 +47965,7 @@
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2">
-        <f t="shared" ref="O57:O161" si="3">P57-SUM(B57:L57)</f>
+        <f t="shared" ref="O57:O163" si="3">P57-SUM(B57:L57)</f>
         <v>0</v>
       </c>
       <c r="P57" s="2">
@@ -52606,6 +52844,96 @@
       </c>
       <c r="P161" s="2">
         <v>396</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A162" s="3">
+        <v>44248</v>
+      </c>
+      <c r="B162" s="2">
+        <v>7</v>
+      </c>
+      <c r="C162" s="2">
+        <v>132</v>
+      </c>
+      <c r="D162" s="2">
+        <v>35</v>
+      </c>
+      <c r="E162" s="2">
+        <v>19</v>
+      </c>
+      <c r="F162" s="2">
+        <v>16</v>
+      </c>
+      <c r="G162" s="2">
+        <v>8</v>
+      </c>
+      <c r="H162" s="2">
+        <v>15</v>
+      </c>
+      <c r="I162" s="2">
+        <v>16</v>
+      </c>
+      <c r="J162" s="2">
+        <v>5</v>
+      </c>
+      <c r="K162" s="2">
+        <v>3</v>
+      </c>
+      <c r="L162" s="2">
+        <v>2</v>
+      </c>
+      <c r="O162" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P162" s="2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A163" s="3">
+        <v>44249</v>
+      </c>
+      <c r="B163" s="2">
+        <v>11</v>
+      </c>
+      <c r="C163" s="2">
+        <v>64</v>
+      </c>
+      <c r="D163" s="2">
+        <v>28</v>
+      </c>
+      <c r="E163" s="2">
+        <v>12</v>
+      </c>
+      <c r="F163" s="2">
+        <v>16</v>
+      </c>
+      <c r="G163" s="2">
+        <v>1</v>
+      </c>
+      <c r="H163" s="2">
+        <v>10</v>
+      </c>
+      <c r="I163" s="2">
+        <v>4</v>
+      </c>
+      <c r="J163" s="2">
+        <v>0</v>
+      </c>
+      <c r="K163" s="2">
+        <v>1</v>
+      </c>
+      <c r="L163" s="2">
+        <v>0</v>
+      </c>
+      <c r="O163" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P163" s="2">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -52616,11 +52944,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407D83AE-931D-477A-A1B1-2033956B6112}">
-  <dimension ref="A1:J126"/>
+  <dimension ref="A1:J127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E115" sqref="E115"/>
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -52699,7 +53027,7 @@
         <v>18.064705882352943</v>
       </c>
       <c r="D3" s="15">
-        <f t="shared" ref="D3:D125" si="1">B3/3716900*100000</f>
+        <f t="shared" ref="D3:D127" si="1">B3/3716900*100000</f>
         <v>82.622615620543996</v>
       </c>
       <c r="E3" s="15">
@@ -53681,7 +54009,7 @@
         <v>6192</v>
       </c>
       <c r="C37" s="7">
-        <f t="shared" ref="C37:C125" si="3">B37/17000*100</f>
+        <f t="shared" ref="C37:C127" si="3">B37/17000*100</f>
         <v>36.423529411764704</v>
       </c>
       <c r="D37" s="15">
@@ -54331,7 +54659,7 @@
         <v>29158</v>
       </c>
       <c r="F59" s="15">
-        <f t="shared" ref="F59:F125" si="4">B59/E59*100</f>
+        <f t="shared" ref="F59:F127" si="4">B59/E59*100</f>
         <v>23.050277796831057</v>
       </c>
       <c r="G59" s="15">
@@ -56175,7 +56503,7 @@
       <c r="B123" s="2">
         <v>1869</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123" s="12">
         <f t="shared" si="3"/>
         <v>10.994117647058824</v>
       </c>
@@ -56252,11 +56580,62 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D126" s="15"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="15"/>
-      <c r="H126" s="15"/>
+      <c r="A126" s="3">
+        <v>44248</v>
+      </c>
+      <c r="B126" s="2">
+        <v>1723</v>
+      </c>
+      <c r="C126" s="2">
+        <f t="shared" si="3"/>
+        <v>10.135294117647058</v>
+      </c>
+      <c r="D126" s="15">
+        <f t="shared" si="1"/>
+        <v>46.35583416287767</v>
+      </c>
+      <c r="E126" s="15">
+        <v>3257</v>
+      </c>
+      <c r="F126" s="15">
+        <f t="shared" si="4"/>
+        <v>52.901443045747619</v>
+      </c>
+      <c r="G126" s="15">
+        <v>344</v>
+      </c>
+      <c r="H126" s="15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A127" s="3">
+        <v>44249</v>
+      </c>
+      <c r="B127" s="2">
+        <v>1713</v>
+      </c>
+      <c r="C127" s="2">
+        <f t="shared" si="3"/>
+        <v>10.076470588235294</v>
+      </c>
+      <c r="D127" s="15">
+        <f t="shared" si="1"/>
+        <v>46.086792757405362</v>
+      </c>
+      <c r="E127" s="14">
+        <v>2785</v>
+      </c>
+      <c r="F127" s="2">
+        <f t="shared" si="4"/>
+        <v>61.508078994614003</v>
+      </c>
+      <c r="G127" s="14">
+        <v>336</v>
+      </c>
+      <c r="H127" s="14">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:B23">
@@ -56370,23 +56749,23 @@
       </c>
       <c r="H3" s="2">
         <f>SUM(regions!B:B)</f>
-        <v>38224</v>
+        <v>38242</v>
       </c>
       <c r="I3" s="2">
         <f>36439+SUM(regions!B112:B9999)</f>
-        <v>38667</v>
+        <v>38685</v>
       </c>
       <c r="J3" s="7">
         <f t="shared" ref="J3:J8" si="0">H3/G3*100</f>
-        <v>10.862423698180123</v>
+        <v>10.867538903981904</v>
       </c>
       <c r="K3" s="5">
         <f t="shared" ref="K3:K8" si="1">J3/H3*10000</f>
-        <v>2.8417810009889397</v>
+        <v>2.8417810009889402</v>
       </c>
       <c r="L3" s="5">
         <f t="shared" ref="L3:L8" si="2">G3/H3</f>
-        <v>9.2060485558811216</v>
+        <v>9.201715391454421</v>
       </c>
       <c r="M3" s="5">
         <v>0</v>
@@ -56416,23 +56795,23 @@
       </c>
       <c r="H4" s="2">
         <f>SUM(regions!H:H)</f>
-        <v>5873</v>
+        <v>5898</v>
       </c>
       <c r="I4" s="2">
         <f>4776+SUM(regions!H112:H9999)</f>
-        <v>5987</v>
+        <v>6012</v>
       </c>
       <c r="J4" s="7">
         <f t="shared" si="0"/>
-        <v>5.4329827287949009</v>
+        <v>5.4561096772403079</v>
       </c>
       <c r="K4" s="5">
         <f t="shared" si="1"/>
-        <v>9.2507793781626102</v>
+        <v>9.250779378162612</v>
       </c>
       <c r="L4" s="5">
         <f t="shared" si="2"/>
-        <v>18.406095692150519</v>
+        <v>18.328077314343844</v>
       </c>
       <c r="M4" s="5">
         <v>0</v>
@@ -56462,23 +56841,23 @@
       </c>
       <c r="H5" s="2">
         <f>SUM(regions!D:D)</f>
-        <v>41954</v>
+        <v>42017</v>
       </c>
       <c r="I5" s="21">
         <f>34701+SUM(regions!D112:D9999)</f>
-        <v>41155</v>
+        <v>41218</v>
       </c>
       <c r="J5" s="7">
         <f t="shared" si="0"/>
-        <v>8.6150851261748365</v>
+        <v>8.6280219227365222</v>
       </c>
       <c r="K5" s="5">
         <f t="shared" si="1"/>
-        <v>2.053459771696343</v>
+        <v>2.0534597716963425</v>
       </c>
       <c r="L5" s="5">
         <f t="shared" si="2"/>
-        <v>11.607546360299375</v>
+        <v>11.590142085346407</v>
       </c>
       <c r="M5" s="5">
         <v>0</v>
@@ -56508,15 +56887,15 @@
       </c>
       <c r="H6" s="2">
         <f>SUM(regions!I:I)</f>
-        <v>12366</v>
+        <v>12386</v>
       </c>
       <c r="I6" s="2">
         <f>9593+SUM(regions!I112:I9999)</f>
-        <v>12340</v>
+        <v>12360</v>
       </c>
       <c r="J6" s="7">
         <f t="shared" si="0"/>
-        <v>3.9883761058664544</v>
+        <v>3.9948266575498868</v>
       </c>
       <c r="K6" s="5">
         <f t="shared" si="1"/>
@@ -56524,7 +56903,7 @@
       </c>
       <c r="L6" s="5">
         <f t="shared" si="2"/>
-        <v>25.072861070677664</v>
+        <v>25.032375262393025</v>
       </c>
       <c r="M6" s="5">
         <v>0</v>
@@ -56554,15 +56933,15 @@
       </c>
       <c r="H7" s="2">
         <f>SUM(regions!G:G)</f>
-        <v>15521</v>
+        <v>15530</v>
       </c>
       <c r="I7" s="2">
         <f>13198+SUM(regions!G112:G9999)</f>
-        <v>15433</v>
+        <v>15442</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" si="0"/>
-        <v>3.5742824836899327</v>
+        <v>3.5763550655051</v>
       </c>
       <c r="K7" s="5">
         <f t="shared" si="1"/>
@@ -56570,7 +56949,7 @@
       </c>
       <c r="L7" s="5">
         <f t="shared" si="2"/>
-        <v>27.977643193093229</v>
+        <v>27.961429491307147</v>
       </c>
       <c r="M7" s="5">
         <v>0</v>
@@ -56600,23 +56979,23 @@
       </c>
       <c r="H8" s="2">
         <f>SUM(regions!K:K)</f>
-        <v>6000</v>
+        <v>6004</v>
       </c>
       <c r="I8" s="2">
         <f>5176+SUM(regions!K112:K9999)</f>
-        <v>6091</v>
+        <v>6095</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" si="0"/>
-        <v>6.4279056811973048</v>
+        <v>6.4321909516514353</v>
       </c>
       <c r="K8" s="5">
         <f t="shared" si="1"/>
-        <v>10.713176135328842</v>
+        <v>10.71317613532884</v>
       </c>
       <c r="L8" s="5">
         <f t="shared" si="2"/>
-        <v>15.557166666666667</v>
+        <v>15.54680213191206</v>
       </c>
       <c r="M8" s="5">
         <v>0</v>
@@ -56671,15 +57050,15 @@
       </c>
       <c r="H10" s="2">
         <f>SUM(regions!L:L)</f>
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="I10" s="2">
         <f>1080+SUM(regions!L112:L9999)</f>
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="J10" s="7">
         <f>H10/G10*100</f>
-        <v>4.6423658872077027</v>
+        <v>4.649243466299863</v>
       </c>
       <c r="K10" s="5">
         <f>J10/H10*10000</f>
@@ -56687,7 +57066,7 @@
       </c>
       <c r="L10" s="5">
         <f>G10/H10</f>
-        <v>21.540740740740741</v>
+        <v>21.508875739644971</v>
       </c>
       <c r="M10" s="5">
         <v>0</v>
@@ -56717,15 +57096,15 @@
       </c>
       <c r="H11" s="2">
         <f>SUM(regions!E:E)</f>
-        <v>20071</v>
+        <v>20102</v>
       </c>
       <c r="I11" s="2">
         <f>15251+SUM(regions!E112:E9999)</f>
-        <v>18858</v>
+        <v>18889</v>
       </c>
       <c r="J11" s="7">
         <f>H11/G11*100</f>
-        <v>6.4513536882097506</v>
+        <v>6.4613179134269547</v>
       </c>
       <c r="K11" s="5">
         <f>J11/H11*10000</f>
@@ -56733,7 +57112,7 @@
       </c>
       <c r="L11" s="5">
         <f>G11/H11</f>
-        <v>15.500622789098699</v>
+        <v>15.476718734454284</v>
       </c>
       <c r="M11" s="5">
         <v>0</v>
@@ -56763,23 +57142,23 @@
       </c>
       <c r="H12" s="2">
         <f>SUM(regions!J:J)</f>
-        <v>4587</v>
+        <v>4592</v>
       </c>
       <c r="I12" s="2">
         <f>3885+SUM(regions!J112:J9999)</f>
-        <v>4595</v>
+        <v>4600</v>
       </c>
       <c r="J12" s="7">
         <f>H12/G12*100</f>
-        <v>3.0155015317459273</v>
+        <v>3.018788540173817</v>
       </c>
       <c r="K12" s="5">
         <f>J12/H12*10000</f>
-        <v>6.5740168557792176</v>
+        <v>6.5740168557792185</v>
       </c>
       <c r="L12" s="5">
         <f>G12/H12</f>
-        <v>33.161979507303251</v>
+        <v>33.125871080139376</v>
       </c>
       <c r="M12" s="5">
         <v>0</v>
@@ -56809,15 +57188,15 @@
       </c>
       <c r="H13" s="2">
         <f>SUM(regions!F:F)</f>
-        <v>14230</v>
+        <v>14262</v>
       </c>
       <c r="I13" s="2">
         <f>11529+SUM(regions!F112:F9999)</f>
-        <v>14218</v>
+        <v>14250</v>
       </c>
       <c r="J13" s="7">
         <f>H13/G13*100</f>
-        <v>5.5776798733165052</v>
+        <v>5.5902227936219253</v>
       </c>
       <c r="K13" s="5">
         <f>J13/H13*10000</f>
@@ -56825,7 +57204,7 @@
       </c>
       <c r="L13" s="5">
         <f>G13/H13</f>
-        <v>17.928601546029515</v>
+        <v>17.888374702005329</v>
       </c>
       <c r="M13" s="5">
         <v>0</v>
@@ -56855,15 +57234,15 @@
       </c>
       <c r="H14" s="2">
         <f>SUM(regions!C:C)</f>
-        <v>105339</v>
+        <v>105535</v>
       </c>
       <c r="I14" s="2">
         <f>84643+SUM(regions!C112:C9999)</f>
-        <v>101309</v>
+        <v>101505</v>
       </c>
       <c r="J14" s="7">
         <f>H14/G14*100</f>
-        <v>8.8907325850890171</v>
+        <v>8.9072752102010604</v>
       </c>
       <c r="K14" s="5">
         <f>J14/H14*10000</f>
@@ -56871,7 +57250,7 @@
       </c>
       <c r="L14" s="5">
         <f>G14/H14</f>
-        <v>11.247667055886234</v>
+        <v>11.226777846212157</v>
       </c>
       <c r="M14" s="5">
         <v>0</v>
